--- a/2-2-1 Практика Логические функции_сделано.xlsx
+++ b/2-2-1 Практика Логические функции_сделано.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\РАБОТА\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\я\учеба\Simulative\Simulative BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0D0176-AD4E-4BD6-9A90-0DA3096AD21D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5E806-C1E9-4903-BE87-4AC8DB9F120D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9945" activeTab="1" xr2:uid="{BE275577-B430-4DCB-AA1E-9DF443D9D709}"/>
   </bookViews>
@@ -125,6 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -298,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2574,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE39880-6F5E-4807-B937-230C1ABE3A4C}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,7 +2837,7 @@
         <v>PASS</v>
       </c>
       <c r="I17" s="13" t="str">
-        <f>_xlfn.IFS($G17&gt;85,"Excellent",$G17&gt;60,"Good",$G17&lt;=60,"Bad")</f>
+        <f>_xlfn.IFS($G17&gt;85,"Excellent",$G17&gt;=60,"Good",$G17&lt;60,"Bad")</f>
         <v>Good</v>
       </c>
       <c r="J17" s="13" t="str">
@@ -2850,9 +2854,9 @@
       <c r="M17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="27">
         <f>AVERAGEIF($I$17:$I$31,$M17,$G$17:$G$31)</f>
-        <v>75</v>
+        <v>73.125</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -2906,7 +2910,7 @@
         <v>FAIL</v>
       </c>
       <c r="I18" s="13" t="str">
-        <f t="shared" ref="I18:I31" si="3">_xlfn.IFS($G18&gt;85,"Excellent",$G18&gt;60,"Good",$G18&lt;=60,"Bad")</f>
+        <f t="shared" ref="I18:I31" si="3">_xlfn.IFS($G18&gt;85,"Excellent",$G18&gt;=60,"Good",$G18&lt;60,"Bad")</f>
         <v>Bad</v>
       </c>
       <c r="J18" s="13" t="str">
@@ -2923,9 +2927,9 @@
       <c r="M18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="13">
-        <f t="shared" ref="N18:N19" si="6">AVERAGEIF($I$17:$I$31,$M18,$G$17:$G$31)</f>
-        <v>50</v>
+      <c r="N18" s="27">
+        <f>AVERAGEIF($I$17:$I$31,$M18,$G$17:$G$31)</f>
+        <v>47.5</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -2939,7 +2943,7 @@
         <v>52</v>
       </c>
       <c r="BC18" s="22" t="str">
-        <f t="shared" ref="BC18:BC31" si="7">IF(BB18&lt;60,"Fail","Pass")</f>
+        <f t="shared" ref="BC18:BC31" si="6">IF(BB18&lt;60,"Fail","Pass")</f>
         <v>Fail</v>
       </c>
       <c r="BD18" s="22" t="str">
@@ -3000,8 +3004,8 @@
       <c r="M19" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="13">
-        <f t="shared" si="6"/>
+      <c r="N19" s="27">
+        <f t="shared" ref="N18:N19" si="7">AVERAGEIF($I$17:$I$31,$M19,$G$17:$G$31)</f>
         <v>90</v>
       </c>
       <c r="O19" s="13"/>
@@ -3016,7 +3020,7 @@
         <v>72</v>
       </c>
       <c r="BC19" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD19" s="22" t="str">
@@ -3086,7 +3090,7 @@
         <v>90</v>
       </c>
       <c r="BC20" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD20" s="22" t="str">
@@ -3152,7 +3156,7 @@
         <v>81</v>
       </c>
       <c r="BC21" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD21" s="22" t="str">
@@ -3215,7 +3219,7 @@
         <v>83</v>
       </c>
       <c r="BC22" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD22" s="22" t="str">
@@ -3278,7 +3282,7 @@
         <v>64</v>
       </c>
       <c r="BC23" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD23" s="22" t="str">
@@ -3336,7 +3340,7 @@
         <v>94</v>
       </c>
       <c r="BC24" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD24" s="22" t="str">
@@ -3394,7 +3398,7 @@
         <v>80</v>
       </c>
       <c r="BC25" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD25" s="22" t="str">
@@ -3455,7 +3459,7 @@
         <v>47</v>
       </c>
       <c r="BC26" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Fail</v>
       </c>
       <c r="BD26" s="22" t="str">
@@ -3494,7 +3498,7 @@
       </c>
       <c r="I27" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>Bad</v>
+        <v>Good</v>
       </c>
       <c r="J27" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3516,7 +3520,7 @@
         <v>60</v>
       </c>
       <c r="BC27" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD27" s="22" t="str">
@@ -3577,7 +3581,7 @@
         <v>63</v>
       </c>
       <c r="BC28" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD28" s="22" t="str">
@@ -3633,7 +3637,7 @@
         <v>45</v>
       </c>
       <c r="BC29" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Fail</v>
       </c>
       <c r="BD29" s="22" t="str">
@@ -3689,7 +3693,7 @@
         <v>86</v>
       </c>
       <c r="BC30" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Pass</v>
       </c>
       <c r="BD30" s="22" t="str">
@@ -3745,7 +3749,7 @@
         <v>46</v>
       </c>
       <c r="BC31" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>Fail</v>
       </c>
       <c r="BD31" s="22" t="str">
